--- a/tests/expectation_maximisation_test_answers.xlsx
+++ b/tests/expectation_maximisation_test_answers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinlinacre/Documents/python_projects/fellegi_sunter_em_spark/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A751D6BE-7A2B-0749-9900-D9DCD855F593}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34416CE-7192-9F4B-96F9-F628F5BB894E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22680" xr2:uid="{27CAC7C4-EFB1-2244-808B-55D49E1F78BB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>gamma_0</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>New pis - among non matches</t>
+  </si>
+  <si>
+    <t>Iteration 2</t>
   </si>
 </sst>
 </file>
@@ -408,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802874F6-5FCF-C146-8DF0-16C59BD7727D}">
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:S54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+      <selection activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1059,7 +1062,693 @@
       <c r="A27" s="2"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <f>$S$12</f>
+        <v>0.61146111693671146</v>
+      </c>
+      <c r="E31">
+        <f>$Q$18</f>
+        <v>0.9381189796214725</v>
+      </c>
+      <c r="F31">
+        <f>$R$19</f>
+        <v>0.6464591703373832</v>
+      </c>
+      <c r="H31">
+        <f>1-D31</f>
+        <v>0.38853888306328854</v>
+      </c>
+      <c r="I31">
+        <f>$Q$24</f>
+        <v>0.58263594911362371</v>
+      </c>
+      <c r="J31">
+        <f>$R$25</f>
+        <v>0.52688511388492887</v>
+      </c>
+      <c r="L31">
+        <f t="shared" ref="L31:L40" si="6">PRODUCT(D31:F31)*PRODUCT(H31:J31)</f>
+        <v>4.4229859696041526E-2</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ref="N31:N40" si="7">PRODUCT(D31:F31)</f>
+        <v>0.37082402909246709</v>
+      </c>
+      <c r="O31">
+        <f t="shared" ref="O31:O40" si="8">PRODUCT(H31:J31)</f>
+        <v>0.11927452437288673</v>
+      </c>
+      <c r="P31">
+        <f t="shared" ref="P31:P40" si="9">N31+O31</f>
+        <v>0.4900985534653538</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" ref="Q31:Q40" si="10">N31/P31</f>
+        <v>0.75663155190006393</v>
+      </c>
+      <c r="R31">
+        <f>1-Q31</f>
+        <v>0.24336844809993607</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <f>$S$12</f>
+        <v>0.61146111693671146</v>
+      </c>
+      <c r="E32">
+        <f>$Q$18</f>
+        <v>0.9381189796214725</v>
+      </c>
+      <c r="F32">
+        <f>$R$19</f>
+        <v>0.6464591703373832</v>
+      </c>
+      <c r="H32">
+        <f t="shared" ref="H32:H40" si="11">1-D32</f>
+        <v>0.38853888306328854</v>
+      </c>
+      <c r="I32">
+        <f>$Q$24</f>
+        <v>0.58263594911362371</v>
+      </c>
+      <c r="J32">
+        <f>$R$25</f>
+        <v>0.52688511388492887</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="6"/>
+        <v>4.4229859696041526E-2</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="7"/>
+        <v>0.37082402909246709</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="8"/>
+        <v>0.11927452437288673</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="9"/>
+        <v>0.4900985534653538</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="10"/>
+        <v>0.75663155190006393</v>
+      </c>
+      <c r="R32">
+        <f t="shared" ref="R32:R40" si="12">1-Q32</f>
+        <v>0.24336844809993607</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <f>$S$12</f>
+        <v>0.61146111693671146</v>
+      </c>
+      <c r="E33">
+        <f>$Q$18</f>
+        <v>0.9381189796214725</v>
+      </c>
+      <c r="F33">
+        <f>$R$18</f>
+        <v>0.23088380712660689</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="11"/>
+        <v>0.38853888306328854</v>
+      </c>
+      <c r="I33">
+        <f>$Q$24</f>
+        <v>0.58263594911362371</v>
+      </c>
+      <c r="J33">
+        <f>$R$24</f>
+        <v>0.15139676355682272</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="6"/>
+        <v>4.5390879618540693E-3</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="7"/>
+        <v>0.13244032653479615</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="8"/>
+        <v>3.427270288903668E-2</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="9"/>
+        <v>0.16671302942383281</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="10"/>
+        <v>0.79442096992967759</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="12"/>
+        <v>0.20557903007032241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <f>$S$12</f>
+        <v>0.61146111693671146</v>
+      </c>
+      <c r="E34">
+        <f>$Q$18</f>
+        <v>0.9381189796214725</v>
+      </c>
+      <c r="F34">
+        <f>$R$18</f>
+        <v>0.23088380712660689</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="11"/>
+        <v>0.38853888306328854</v>
+      </c>
+      <c r="I34">
+        <f>$Q$24</f>
+        <v>0.58263594911362371</v>
+      </c>
+      <c r="J34">
+        <f>$R$24</f>
+        <v>0.15139676355682272</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="6"/>
+        <v>4.5390879618540693E-3</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="7"/>
+        <v>0.13244032653479615</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="8"/>
+        <v>3.427270288903668E-2</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="9"/>
+        <v>0.16671302942383281</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="10"/>
+        <v>0.79442096992967759</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="12"/>
+        <v>0.20557903007032241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <f>$S$12</f>
+        <v>0.61146111693671146</v>
+      </c>
+      <c r="E35">
+        <f>$Q$17</f>
+        <v>6.1881020378527531E-2</v>
+      </c>
+      <c r="F35">
+        <f>$R$19</f>
+        <v>0.6464591703373832</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="11"/>
+        <v>0.38853888306328854</v>
+      </c>
+      <c r="I35">
+        <f>$Q$23</f>
+        <v>0.41736405088637618</v>
+      </c>
+      <c r="J35">
+        <f>$R$25</f>
+        <v>0.52688511388492887</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="6"/>
+        <v>2.089935423020758E-3</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="7"/>
+        <v>2.44606172560091E-2</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="8"/>
+        <v>8.5440829278637095E-2</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="9"/>
+        <v>0.1099014465346462</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="10"/>
+        <v>0.22256865607585921</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="12"/>
+        <v>0.77743134392414082</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <f>$S$12</f>
+        <v>0.61146111693671146</v>
+      </c>
+      <c r="E36">
+        <f>$Q$17</f>
+        <v>6.1881020378527531E-2</v>
+      </c>
+      <c r="F36">
+        <f>$R$19</f>
+        <v>0.6464591703373832</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="11"/>
+        <v>0.38853888306328854</v>
+      </c>
+      <c r="I36">
+        <f>$Q$23</f>
+        <v>0.41736405088637618</v>
+      </c>
+      <c r="J36">
+        <f>$R$25</f>
+        <v>0.52688511388492887</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="6"/>
+        <v>2.089935423020758E-3</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="7"/>
+        <v>2.44606172560091E-2</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="8"/>
+        <v>8.5440829278637095E-2</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="9"/>
+        <v>0.1099014465346462</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="10"/>
+        <v>0.22256865607585921</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="12"/>
+        <v>0.77743134392414082</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <f>$S$12</f>
+        <v>0.61146111693671146</v>
+      </c>
+      <c r="E37">
+        <f>$Q$18</f>
+        <v>0.9381189796214725</v>
+      </c>
+      <c r="F37">
+        <f>$R$19</f>
+        <v>0.6464591703373832</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="11"/>
+        <v>0.38853888306328854</v>
+      </c>
+      <c r="I37">
+        <f>$Q$24</f>
+        <v>0.58263594911362371</v>
+      </c>
+      <c r="J37">
+        <f>$R$25</f>
+        <v>0.52688511388492887</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="6"/>
+        <v>4.4229859696041526E-2</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="7"/>
+        <v>0.37082402909246709</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="8"/>
+        <v>0.11927452437288673</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="9"/>
+        <v>0.4900985534653538</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="10"/>
+        <v>0.75663155190006393</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="12"/>
+        <v>0.24336844809993607</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <f>$S$12</f>
+        <v>0.61146111693671146</v>
+      </c>
+      <c r="E38">
+        <f>$Q$18</f>
+        <v>0.9381189796214725</v>
+      </c>
+      <c r="F38">
+        <f>$R$19</f>
+        <v>0.6464591703373832</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="11"/>
+        <v>0.38853888306328854</v>
+      </c>
+      <c r="I38">
+        <f>$Q$24</f>
+        <v>0.58263594911362371</v>
+      </c>
+      <c r="J38">
+        <f>$R$25</f>
+        <v>0.52688511388492887</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="6"/>
+        <v>4.4229859696041526E-2</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="7"/>
+        <v>0.37082402909246709</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="8"/>
+        <v>0.11927452437288673</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="9"/>
+        <v>0.4900985534653538</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="10"/>
+        <v>0.75663155190006393</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="12"/>
+        <v>0.24336844809993607</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <f>$S$12</f>
+        <v>0.61146111693671146</v>
+      </c>
+      <c r="E39">
+        <f>$Q$18</f>
+        <v>0.9381189796214725</v>
+      </c>
+      <c r="F39">
+        <f>$R$17</f>
+        <v>0.12265702253600992</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="11"/>
+        <v>0.38853888306328854</v>
+      </c>
+      <c r="I39">
+        <f>$Q$24</f>
+        <v>0.58263594911362371</v>
+      </c>
+      <c r="J39">
+        <f>$R$23</f>
+        <v>0.32171812255824833</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="6"/>
+        <v>5.1242047694368209E-3</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="7"/>
+        <v>7.0358923471610463E-2</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="8"/>
+        <v>7.282949363920295E-2</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="9"/>
+        <v>0.14318841711081343</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="10"/>
+        <v>0.49137300971181025</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="12"/>
+        <v>0.5086269902881897</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <f>$S$12</f>
+        <v>0.61146111693671146</v>
+      </c>
+      <c r="E40">
+        <f>$Q$18</f>
+        <v>0.9381189796214725</v>
+      </c>
+      <c r="F40">
+        <f>$R$17</f>
+        <v>0.12265702253600992</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="11"/>
+        <v>0.38853888306328854</v>
+      </c>
+      <c r="I40">
+        <f>$Q$24</f>
+        <v>0.58263594911362371</v>
+      </c>
+      <c r="J40">
+        <f>$R$23</f>
+        <v>0.32171812255824833</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="6"/>
+        <v>5.1242047694368209E-3</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="7"/>
+        <v>7.0358923471610463E-2</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="8"/>
+        <v>7.282949363920295E-2</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="9"/>
+        <v>0.14318841711081343</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="10"/>
+        <v>0.49137300971181025</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="12"/>
+        <v>0.5086269902881897</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q41">
+        <f>SUM(Q31:Q40)</f>
+        <v>6.0432514790349501</v>
+      </c>
+      <c r="R41">
+        <f>COUNT(Q31:Q40)</f>
+        <v>10</v>
+      </c>
+      <c r="S41">
+        <f>Q41/R41</f>
+        <v>0.60432514790349501</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O46" t="str">
+        <f>"=0"</f>
+        <v>=0</v>
+      </c>
+      <c r="P46" t="str">
+        <f>O46</f>
+        <v>=0</v>
+      </c>
+      <c r="Q46">
+        <f>SUMIF(A$31:A$40,O46,$Q$31:$Q$40)/SUM($Q$31:$Q$40)</f>
+        <v>7.3658578282895265E-2</v>
+      </c>
+      <c r="R46">
+        <f t="shared" ref="R46:R48" si="13">SUMIF(B$31:B$40,P46,$Q$31:$Q$40)/SUM($Q$31:$Q$40)</f>
+        <v>0.16261875297311898</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O47" t="str">
+        <f>"=1"</f>
+        <v>=1</v>
+      </c>
+      <c r="P47" t="str">
+        <f>O47</f>
+        <v>=1</v>
+      </c>
+      <c r="Q47">
+        <f>SUMIF(A$31:A$40,O47,$Q$31:$Q$40)/SUM($Q$31:$Q$40)</f>
+        <v>0.92634142171710476</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="13"/>
+        <v>0.26291176949549649</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P48" t="str">
+        <f>"=2"</f>
+        <v>=2</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="13"/>
+        <v>0.57446947753138444</v>
+      </c>
+    </row>
+    <row r="51" spans="15:18" x14ac:dyDescent="0.2">
+      <c r="Q51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="15:18" x14ac:dyDescent="0.2">
+      <c r="O52" t="str">
+        <f>"=0"</f>
+        <v>=0</v>
+      </c>
+      <c r="P52" t="str">
+        <f>O52</f>
+        <v>=0</v>
+      </c>
+      <c r="Q52">
+        <f>SUMIF(A$31:A$40,O52,$R$31:$R$40)/SUM($R$31:$R$40)</f>
+        <v>0.39296474860854969</v>
+      </c>
+      <c r="R52">
+        <f>SUMIF(B$31:B$40,P52,$R$31:$R$40)/SUM($R$31:$R$40)</f>
+        <v>0.25709341273179309</v>
+      </c>
+    </row>
+    <row r="53" spans="15:18" x14ac:dyDescent="0.2">
+      <c r="O53" t="str">
+        <f>"=1"</f>
+        <v>=1</v>
+      </c>
+      <c r="P53" t="str">
+        <f>O53</f>
+        <v>=1</v>
+      </c>
+      <c r="Q53">
+        <f>SUMIF(A$31:A$40,O53,$R$31:$R$40)/SUM($R$31:$R$40)</f>
+        <v>0.60703525139145031</v>
+      </c>
+      <c r="R53">
+        <f>SUMIF(B$31:B$40,P53,$R$31:$R$40)/SUM($R$31:$R$40)</f>
+        <v>0.10391311400310159</v>
+      </c>
+    </row>
+    <row r="54" spans="15:18" x14ac:dyDescent="0.2">
+      <c r="P54" t="str">
+        <f>"=2"</f>
+        <v>=2</v>
+      </c>
+      <c r="R54">
+        <f>SUMIF(B$31:B$40,P54,$R$31:$R$40)/SUM($R$31:$R$40)</f>
+        <v>0.63899347326510536</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/expectation_maximisation_test_answers.xlsx
+++ b/tests/expectation_maximisation_test_answers.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinlinacre/Documents/python_projects/fellegi_sunter_em_spark/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466CD23A-58D1-3345-8A48-97E3665EB353}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F53699-99DD-754D-A3CD-A4256A3F78DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60160" yWindow="-18680" windowWidth="60160" windowHeight="33380" xr2:uid="{27CAC7C4-EFB1-2244-808B-55D49E1F78BB}"/>
+    <workbookView xWindow="-60160" yWindow="-18680" windowWidth="30080" windowHeight="32540" xr2:uid="{27CAC7C4-EFB1-2244-808B-55D49E1F78BB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="test1" sheetId="1" r:id="rId1"/>
+    <sheet name="test_nulls" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t>gamma_0</t>
   </si>
@@ -47,12 +49,63 @@
   <si>
     <t>Iteration 2</t>
   </si>
+  <si>
+    <t>unique_id_l</t>
+  </si>
+  <si>
+    <t>unique_id_r</t>
+  </si>
+  <si>
+    <t>forename_l</t>
+  </si>
+  <si>
+    <t>forename_r</t>
+  </si>
+  <si>
+    <t>surname_l</t>
+  </si>
+  <si>
+    <t>surname_r</t>
+  </si>
+  <si>
+    <t>dob_l</t>
+  </si>
+  <si>
+    <t>dob_r</t>
+  </si>
+  <si>
+    <t>gamma_2</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>Linacre</t>
+  </si>
+  <si>
+    <t>prob_match_0</t>
+  </si>
+  <si>
+    <t>prob_non_match_0</t>
+  </si>
+  <si>
+    <t>prob_match_1</t>
+  </si>
+  <si>
+    <t>prob_non_match_1</t>
+  </si>
+  <si>
+    <t>prob_match_2</t>
+  </si>
+  <si>
+    <t>prob_non_match_2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -77,6 +130,12 @@
       <color theme="1"/>
       <name val="Liberation Sans"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -98,11 +157,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,7 +481,7 @@
   <dimension ref="A1:AA50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T49" sqref="T49"/>
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1090,7 +1151,7 @@
         <v>2</v>
       </c>
       <c r="F29">
-        <f>$U$10</f>
+        <f t="shared" ref="F29:F36" si="6">$U$10</f>
         <v>0.54092214085174029</v>
       </c>
       <c r="G29">
@@ -1114,23 +1175,23 @@
         <v>0.49947616251626203</v>
       </c>
       <c r="N29">
-        <f t="shared" ref="N29:N36" si="6">PRODUCT(F29:H29)*PRODUCT(J29:L29)</f>
+        <f t="shared" ref="N29:N36" si="7">PRODUCT(F29:H29)*PRODUCT(J29:L29)</f>
         <v>3.1633241894366552E-2</v>
       </c>
       <c r="P29">
-        <f t="shared" ref="P29:P36" si="7">PRODUCT(F29:H29)</f>
+        <f t="shared" ref="P29:P36" si="8">PRODUCT(F29:H29)</f>
         <v>0.24703187662060033</v>
       </c>
       <c r="Q29">
-        <f t="shared" ref="Q29:Q36" si="8">PRODUCT(J29:L29)</f>
+        <f t="shared" ref="Q29:Q36" si="9">PRODUCT(J29:L29)</f>
         <v>0.12805327930593316</v>
       </c>
       <c r="R29">
-        <f t="shared" ref="R29:R36" si="9">P29+Q29</f>
+        <f t="shared" ref="R29:R36" si="10">P29+Q29</f>
         <v>0.37508515592653346</v>
       </c>
       <c r="S29">
-        <f t="shared" ref="S29:S36" si="10">P29/R29</f>
+        <f t="shared" ref="S29:S36" si="11">P29/R29</f>
         <v>0.65860211399297697</v>
       </c>
       <c r="T29">
@@ -1152,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <f>$U$10</f>
+        <f t="shared" si="6"/>
         <v>0.54092214085174029</v>
       </c>
       <c r="G30">
@@ -1164,7 +1225,7 @@
         <v>0.32624027546260564</v>
       </c>
       <c r="J30">
-        <f t="shared" ref="J30:J36" si="11">1-F30</f>
+        <f t="shared" ref="J30:J36" si="12">1-F30</f>
         <v>0.45907785914825971</v>
       </c>
       <c r="K30">
@@ -1176,27 +1237,27 @@
         <v>0.16016762799479614</v>
       </c>
       <c r="N30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.6127981518638822E-3</v>
       </c>
       <c r="P30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.1610403049363871</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.1063000684679642E-2</v>
       </c>
       <c r="R30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.20210330562106674</v>
       </c>
       <c r="S30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.79682172659921435</v>
       </c>
       <c r="T30">
-        <f t="shared" ref="T30:T36" si="12">1-S30</f>
+        <f t="shared" ref="T30:T36" si="13">1-S30</f>
         <v>0.20317827340078565</v>
       </c>
     </row>
@@ -1214,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <f>$U$10</f>
+        <f t="shared" si="6"/>
         <v>0.54092214085174029</v>
       </c>
       <c r="G31">
@@ -1226,7 +1287,7 @@
         <v>0.32624027546260564</v>
       </c>
       <c r="J31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.45907785914825971</v>
       </c>
       <c r="K31">
@@ -1238,27 +1299,27 @@
         <v>0.16016762799479614</v>
       </c>
       <c r="N31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.6127981518638822E-3</v>
       </c>
       <c r="P31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.1610403049363871</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.1063000684679642E-2</v>
       </c>
       <c r="R31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.20210330562106674</v>
       </c>
       <c r="S31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.79682172659921435</v>
       </c>
       <c r="T31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.20317827340078565</v>
       </c>
     </row>
@@ -1276,7 +1337,7 @@
         <v>2</v>
       </c>
       <c r="F32">
-        <f>$U$10</f>
+        <f t="shared" si="6"/>
         <v>0.54092214085174029</v>
       </c>
       <c r="G32">
@@ -1288,7 +1349,7 @@
         <v>0.50044457819788524</v>
       </c>
       <c r="J32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.45907785914825971</v>
       </c>
       <c r="K32">
@@ -1300,27 +1361,27 @@
         <v>0.49947616251626203</v>
       </c>
       <c r="N32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.3964403245422452E-3</v>
       </c>
       <c r="P32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.3669675995845928E-2</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.1012451680776207</v>
       </c>
       <c r="R32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.12491484407346662</v>
       </c>
       <c r="S32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.18948649515124877</v>
       </c>
       <c r="T32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.81051350484875129</v>
       </c>
     </row>
@@ -1338,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="F33">
-        <f>$U$10</f>
+        <f t="shared" si="6"/>
         <v>0.54092214085174029</v>
       </c>
       <c r="G33">
@@ -1350,7 +1411,7 @@
         <v>0.50044457819788524</v>
       </c>
       <c r="J33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.45907785914825971</v>
       </c>
       <c r="K33">
@@ -1362,27 +1423,27 @@
         <v>0.49947616251626203</v>
       </c>
       <c r="N33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.3964403245422452E-3</v>
       </c>
       <c r="P33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.3669675995845928E-2</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.1012451680776207</v>
       </c>
       <c r="R33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.12491484407346662</v>
       </c>
       <c r="S33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.18948649515124877</v>
       </c>
       <c r="T33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.81051350484875129</v>
       </c>
     </row>
@@ -1400,7 +1461,7 @@
         <v>2</v>
       </c>
       <c r="F34">
-        <f>$U$10</f>
+        <f t="shared" si="6"/>
         <v>0.54092214085174029</v>
       </c>
       <c r="G34">
@@ -1412,7 +1473,7 @@
         <v>0.50044457819788524</v>
       </c>
       <c r="J34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.45907785914825971</v>
       </c>
       <c r="K34">
@@ -1424,27 +1485,27 @@
         <v>0.49947616251626203</v>
       </c>
       <c r="N34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.1633241894366552E-2</v>
       </c>
       <c r="P34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.24703187662060033</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.12805327930593316</v>
       </c>
       <c r="R34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.37508515592653346</v>
       </c>
       <c r="S34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.65860211399297697</v>
       </c>
       <c r="T34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.34139788600702303</v>
       </c>
     </row>
@@ -1462,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <f>$U$10</f>
+        <f t="shared" si="6"/>
         <v>0.54092214085174029</v>
       </c>
       <c r="G35">
@@ -1474,7 +1535,7 @@
         <v>0.17331514633950929</v>
       </c>
       <c r="J35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.45907785914825971</v>
       </c>
       <c r="K35">
@@ -1486,27 +1547,27 @@
         <v>0.34035620948894191</v>
       </c>
       <c r="N35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.4652291636275901E-3</v>
       </c>
       <c r="P35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.5552661997455676E-2</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.7258876454944262E-2</v>
       </c>
       <c r="R35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.17281153845239994</v>
       </c>
       <c r="S35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.49506336650674931</v>
       </c>
       <c r="T35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.50493663349325069</v>
       </c>
     </row>
@@ -1524,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <f>$U$10</f>
+        <f t="shared" si="6"/>
         <v>0.54092214085174029</v>
       </c>
       <c r="G36">
@@ -1536,7 +1597,7 @@
         <v>0.17331514633950929</v>
       </c>
       <c r="J36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.45907785914825971</v>
       </c>
       <c r="K36">
@@ -1548,27 +1609,27 @@
         <v>0.34035620948894191</v>
       </c>
       <c r="N36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.4652291636275901E-3</v>
       </c>
       <c r="P36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.5552661997455676E-2</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.7258876454944262E-2</v>
       </c>
       <c r="R36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.17281153845239994</v>
       </c>
       <c r="S36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.49506336650674931</v>
       </c>
       <c r="T36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.50493663349325069</v>
       </c>
     </row>
@@ -1691,4 +1752,640 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F3AD2E-3D15-5244-BB15-E51770BAFD60}">
+  <dimension ref="A1:X34"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="I1">
+        <v>0.1</v>
+      </c>
+      <c r="K1">
+        <v>1</v>
+      </c>
+      <c r="L1">
+        <v>2</v>
+      </c>
+      <c r="M1">
+        <v>3</v>
+      </c>
+      <c r="N1">
+        <v>4</v>
+      </c>
+      <c r="O1">
+        <v>5</v>
+      </c>
+      <c r="P1">
+        <v>6</v>
+      </c>
+      <c r="Q1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="K2">
+        <v>-1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0.4</v>
+      </c>
+      <c r="M3">
+        <v>0.65</v>
+      </c>
+      <c r="N3">
+        <v>0.05</v>
+      </c>
+      <c r="O3">
+        <v>0.4</v>
+      </c>
+      <c r="P3">
+        <v>0.4</v>
+      </c>
+      <c r="Q3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.6</v>
+      </c>
+      <c r="M4">
+        <v>0.35</v>
+      </c>
+      <c r="N4">
+        <v>0.2</v>
+      </c>
+      <c r="O4">
+        <v>0.3</v>
+      </c>
+      <c r="P4">
+        <v>0.6</v>
+      </c>
+      <c r="Q4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>0.75</v>
+      </c>
+      <c r="O5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="5">
+        <v>29221</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>-1</v>
+      </c>
+      <c r="L7">
+        <f>VLOOKUP(I7,$K$2:$Q$5,L$1)</f>
+        <v>0.6</v>
+      </c>
+      <c r="M7">
+        <f>VLOOKUP(I7,$K$2:$Q$5,M$1)</f>
+        <v>0.35</v>
+      </c>
+      <c r="N7">
+        <f>VLOOKUP(J7,$K$2:$Q$5,N$1)</f>
+        <v>0.75</v>
+      </c>
+      <c r="O7">
+        <f>VLOOKUP(J7,$K$2:$Q$5,O$1)</f>
+        <v>0.3</v>
+      </c>
+      <c r="P7">
+        <f>VLOOKUP(K7,$K$2:$Q$5,P$1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <f>VLOOKUP(K7,$K$2:$Q$5,Q$1)</f>
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <f>$I$1</f>
+        <v>0.1</v>
+      </c>
+      <c r="T7">
+        <f>L7*N7*P7</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="U7">
+        <f>1-S7</f>
+        <v>0.9</v>
+      </c>
+      <c r="V7">
+        <f>M7*O7*Q7</f>
+        <v>0.105</v>
+      </c>
+      <c r="W7">
+        <f>S7*T7+U7*V7</f>
+        <v>0.13950000000000001</v>
+      </c>
+      <c r="X7">
+        <f>S7*T7/W7</f>
+        <v>0.32258064516129026</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="5">
+        <v>29221</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>-1</v>
+      </c>
+      <c r="K8">
+        <v>-1</v>
+      </c>
+      <c r="L8">
+        <f>VLOOKUP(I8,$K$2:$Q$5,2)</f>
+        <v>0.6</v>
+      </c>
+      <c r="M8">
+        <f>VLOOKUP(I8,$K$2:$Q$5,M$1)</f>
+        <v>0.35</v>
+      </c>
+      <c r="N8">
+        <f>VLOOKUP(J8,$K$2:$Q$5,N$1)</f>
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <f t="shared" ref="O8:Q12" si="0">VLOOKUP(J8,$K$2:$Q$5,O$1)</f>
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" ref="Q8:Q12" si="1">VLOOKUP(K8,$K$2:$Q$5,Q$1)</f>
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <f t="shared" ref="S8:S12" si="2">$I$1</f>
+        <v>0.1</v>
+      </c>
+      <c r="T8">
+        <f>L8*N8*P8</f>
+        <v>0.6</v>
+      </c>
+      <c r="U8">
+        <f>1-S8</f>
+        <v>0.9</v>
+      </c>
+      <c r="V8">
+        <f>M8*O8*Q8</f>
+        <v>0.35</v>
+      </c>
+      <c r="W8">
+        <f t="shared" ref="W8:W12" si="3">S8*T8+U8*V8</f>
+        <v>0.375</v>
+      </c>
+      <c r="X8">
+        <f>S8*T8/W8</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="5">
+        <v>29221</v>
+      </c>
+      <c r="I9">
+        <v>-1</v>
+      </c>
+      <c r="J9">
+        <v>-1</v>
+      </c>
+      <c r="K9">
+        <v>-1</v>
+      </c>
+      <c r="L9">
+        <f>VLOOKUP(I9,$K$2:$Q$5,2)</f>
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f>VLOOKUP(I9,$K$2:$Q$5,M$1)</f>
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <f>VLOOKUP(J9,$K$2:$Q$5,N$1)</f>
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="T9">
+        <f>L9*N9*P9</f>
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <f>1-S9</f>
+        <v>0.9</v>
+      </c>
+      <c r="V9">
+        <f>M9*O9*Q9</f>
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <f>S9*T9/W9</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="4">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>-1</v>
+      </c>
+      <c r="K10">
+        <v>-1</v>
+      </c>
+      <c r="L10">
+        <f>VLOOKUP(I10,$K$2:$Q$5,2)</f>
+        <v>0.6</v>
+      </c>
+      <c r="M10">
+        <f>VLOOKUP(I10,$K$2:$Q$5,M$1)</f>
+        <v>0.35</v>
+      </c>
+      <c r="N10">
+        <f>VLOOKUP(J10,$K$2:$Q$5,N$1)</f>
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="T10">
+        <f>L10*N10*P10</f>
+        <v>0.6</v>
+      </c>
+      <c r="U10">
+        <f>1-S10</f>
+        <v>0.9</v>
+      </c>
+      <c r="V10">
+        <f>M10*O10*Q10</f>
+        <v>0.35</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="3"/>
+        <v>0.375</v>
+      </c>
+      <c r="X10">
+        <f>S10*T10/W10</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="4">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11">
+        <v>-1</v>
+      </c>
+      <c r="J11">
+        <v>-1</v>
+      </c>
+      <c r="K11">
+        <v>-1</v>
+      </c>
+      <c r="L11">
+        <f>VLOOKUP(I11,$K$2:$Q$5,2)</f>
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <f>VLOOKUP(I11,$K$2:$Q$5,M$1)</f>
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <f>VLOOKUP(J11,$K$2:$Q$5,N$1)</f>
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="T11">
+        <f>L11*N11*P11</f>
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <f>1-S11</f>
+        <v>0.9</v>
+      </c>
+      <c r="V11">
+        <f>M11*O11*Q11</f>
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <f>S11*T11/W11</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="4">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12">
+        <v>-1</v>
+      </c>
+      <c r="J12">
+        <v>-1</v>
+      </c>
+      <c r="K12">
+        <v>-1</v>
+      </c>
+      <c r="L12">
+        <f>VLOOKUP(I12,$K$2:$Q$5,2)</f>
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <f>VLOOKUP(I12,$K$2:$Q$5,M$1)</f>
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <f>VLOOKUP(J12,$K$2:$Q$5,N$1)</f>
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="T12">
+        <f>L12*N12*P12</f>
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <f>1-S12</f>
+        <v>0.9</v>
+      </c>
+      <c r="V12">
+        <f>M12*O12*Q12</f>
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <f>S12*T12/W12</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="11:12">
+      <c r="K33">
+        <v>1363</v>
+      </c>
+      <c r="L33">
+        <f>K33/60</f>
+        <v>22.716666666666665</v>
+      </c>
+    </row>
+    <row r="34" spans="11:12">
+      <c r="L34">
+        <f>L33*2</f>
+        <v>45.43333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>